--- a/top5s.xlsx
+++ b/top5s.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="860" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$52</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="186">
   <si>
     <t>Song</t>
   </si>
@@ -566,6 +567,21 @@
   </si>
   <si>
     <t>Naïve</t>
+  </si>
+  <si>
+    <t>HYFR (Hell Ya Fucking Right) - Drake</t>
+  </si>
+  <si>
+    <t>Mercy</t>
+  </si>
+  <si>
+    <t>Shot for Me - Drake</t>
+  </si>
+  <si>
+    <t>Take Care - Drake</t>
+  </si>
+  <si>
+    <t>Doing it Wrong - Drake</t>
   </si>
 </sst>
 </file>
@@ -621,7 +637,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -630,6 +646,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -650,12 +681,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -820,11 +871,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -832,22 +920,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -856,68 +932,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -928,6 +1016,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1264,8 +1368,8 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2709,13 +2813,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2791,7 +2895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30">
+    <row r="4" spans="1:10">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
@@ -2887,7 +2991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30">
+    <row r="7" spans="1:10">
       <c r="A7" s="8" t="s">
         <v>56</v>
       </c>
@@ -2983,7 +3087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30">
+    <row r="10" spans="1:10">
       <c r="A10" s="8" t="s">
         <v>142</v>
       </c>
@@ -3080,451 +3184,457 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="C14" t="s">
+      <c r="C14" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G14" t="s">
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46" t="s">
         <v>11</v>
       </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" t="s">
+      <c r="A15" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="47" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="37">
         <f>B3/20</f>
         <v>0.75</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="39">
         <f t="shared" ref="C16:J16" si="0">C3/20</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="13">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="13">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="40">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="39">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="13">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="13">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="40">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="37">
         <f t="shared" ref="B17:J17" si="1">B4/20</f>
         <v>0.75</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="39">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="13">
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="13">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="40">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="39">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="13">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="13">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="40">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="37">
         <f t="shared" ref="B18:J18" si="2">B5/20</f>
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="39">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="13">
         <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="13">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="40">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="39">
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="13">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="13">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="40">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="37">
         <f t="shared" ref="B19:J19" si="3">B6/20</f>
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="39">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="40">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="39">
         <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="13">
         <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="13">
         <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="40">
         <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:10">
+      <c r="A20" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="37">
         <f t="shared" ref="B20:J20" si="4">B7/20</f>
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="39">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="40">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="39">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="40">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="37">
         <f t="shared" ref="B21:J21" si="5">B8/20</f>
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="39">
         <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="13">
         <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="13">
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="40">
         <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="39">
         <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="13">
         <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="13">
         <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="40">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="37">
         <f t="shared" ref="B22:J22" si="6">B9/20</f>
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="39">
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="13">
         <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="40">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="39">
         <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="13">
         <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="13">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="40">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="37">
         <f t="shared" ref="B23:J23" si="7">B10/20</f>
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="39">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="13">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="13">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="40">
         <f t="shared" si="7"/>
         <v>0.85</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="39">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="13">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="13">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="40">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="37">
         <f t="shared" ref="B24:J24" si="8">B11/20</f>
         <v>0.85</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="39">
         <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="13">
         <f t="shared" si="8"/>
         <v>0.45</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="13">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="40">
         <f t="shared" si="8"/>
         <v>0.35</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="39">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="13">
         <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="40">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="38">
         <f t="shared" ref="B25:J25" si="9">B12/20</f>
         <v>0</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="41">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="41">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -3538,4 +3648,114 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="50"/>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>